--- a/excelAnnotationTestProject3/src/test/resources/workbook.xlsx
+++ b/excelAnnotationTestProject3/src/test/resources/workbook.xlsx
@@ -55,101 +55,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
-          <t>등급</t>
+          <t>이름</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>가격</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
-          <t>1등급</t>
+          <t>엔젤인어스</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>6000.0</v>
+      </c>
       <c r="C2" t="n">
-        <v>10000.0</v>
+        <f>=B2*1.1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
-          <t>5등급</t>
+          <t>파스쿠치</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>5000.0</v>
+      </c>
       <c r="C3" t="n">
-        <v>3000.0</v>
+        <f>=B3*1.1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
-          <t>3등급</t>
+          <t>이디야커피</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>4000.0</v>
+      </c>
       <c r="C4" t="n">
-        <v>500.0</v>
+        <f>=B4*1.1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
-          <t>3등급</t>
+          <t>스타벅스</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>3000.0</v>
+      </c>
       <c r="C5" t="n">
-        <v>20000.0</v>
+        <f>=B5*1.1</f>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2등급</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15000.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>5등급</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>12400.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1등급</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>10200.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="n">
-        <f>=sum(C2:C8)</f>
-        <v>0.0</v>
-      </c>
-      <c r="C9" t="n">
-        <f>=AVERAGE(C2:C8)</f>
+      <c r="B6" t="n">
+        <f>=sum(B2:B5)</f>
         <v>0.0</v>
       </c>
     </row>

--- a/excelAnnotationTestProject3/src/test/resources/workbook.xlsx
+++ b/excelAnnotationTestProject3/src/test/resources/workbook.xlsx
@@ -107,8 +107,10 @@
           <t>이디야커피</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>4000.0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C4" t="n">
         <f>=B4*1.1</f>
